--- a/Assets/Resources/Skill_List_Information.xlsx
+++ b/Assets/Resources/Skill_List_Information.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김대현\Desktop\PortalCraft\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\PortalCraft\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF85207-D231-48B7-B639-A11B86E10857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="1830" windowWidth="28800" windowHeight="15345" xr2:uid="{9EDBE35E-29FD-4FA9-AE37-6DE6505FBC5F}"/>
+    <workbookView xWindow="8700" yWindow="1830" windowWidth="28800" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>레인저</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,11 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가이드 샷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티 샷</t>
+    <t>휠 윈드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,46 +55,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차지 어택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숄더 차지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분쇠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유도 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러발 쏘기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한 한발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차지 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전사 궁</t>
+    <t>3발 연속 사격</t>
+  </si>
+  <si>
+    <t>3발 연속 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 저격 하여 강한 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3발 연속 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 강하게 타격 하여 데미지를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하게 회전 하여 적을 여러 번 타격 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CAB87E-1567-4865-B15F-CFC00DBB4622}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -468,15 +458,15 @@
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.75" customWidth="1"/>
     <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="46.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
@@ -488,202 +478,220 @@
         <v>0</v>
       </c>
       <c r="F1" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <v>10</v>
       </c>
       <c r="H1" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>60</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G5" s="1">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
       <c r="H5" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>18</v>
-      </c>
       <c r="G6" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>50</v>
+        <v>1.5</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1">
         <v>30</v>
@@ -691,31 +699,34 @@
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>50</v>
+        <v>1.8</v>
       </c>
       <c r="G8" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
         <v>30</v>
@@ -723,31 +734,34 @@
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>50</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G9" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1">
         <v>30</v>
@@ -755,80 +769,89 @@
       <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>20</v>
+        <v>1.3</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>20</v>
+        <v>1.7</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -840,215 +863,69 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
         <v>20</v>
       </c>
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
       <c r="H12" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1">
-        <v>30</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1">
-        <v>30</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10</v>
-      </c>
-      <c r="H15" s="1">
-        <v>30</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1">
-        <v>30</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>40</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1">
-        <v>30</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Skill_List_Information.xlsx
+++ b/Assets/Resources/Skill_List_Information.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/Skill_List_Information.xlsx
+++ b/Assets/Resources/Skill_List_Information.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\PortalCraft\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김대현\Desktop\PortalCraft\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C7304-659D-469E-9BD6-8BEB674D9E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="1830" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>레인저</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,12 +72,15 @@
   <si>
     <t>강하게 회전 하여 적을 여러 번 타격 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2발 연속 사격</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,11 +440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,7 +464,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1">
         <v>2</v>
@@ -478,22 +473,22 @@
         <v>0</v>
       </c>
       <c r="F1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -504,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -513,22 +508,22 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
-        <v>10</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -539,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -548,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="b">
         <v>0</v>
@@ -568,48 +563,48 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1">
-        <v>60</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -618,13 +613,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -633,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -644,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -653,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -668,71 +663,71 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="G7" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="b">
         <v>0</v>
@@ -749,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -758,13 +753,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
@@ -773,36 +768,36 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="b">
         <v>0</v>
@@ -813,31 +808,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G11" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="b">
         <v>0</v>
@@ -848,58 +843,178 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
         <v>20</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H16" s="1">
         <v>70</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
